--- a/cf_entregable/frames_view.xlsx
+++ b/cf_entregable/frames_view.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guard\Documents\GitHub\html\cf_entregable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF55F7C-8DBF-4B25-AC9D-819DA03A71B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D37DCC25-7887-407B-808A-4AA80D59267F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-118" yWindow="-118" windowWidth="21181" windowHeight="11402" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>segmento</t>
   </si>
@@ -45,9 +45,6 @@
     <t>https://projector.tensorflow.org/?config=https://gist.githubusercontent.com/DavidIngx/883460f57227a9a594e2b26c27aa8b8d/raw/d8485bebe2b0c6894bc482ced64d1723550c795e/data_cf</t>
   </si>
   <si>
-    <t>https://htmlpreview.github.io/?</t>
-  </si>
-  <si>
     <t>https://htmlpreview.github.io/?https://raw.githubusercontent.com/DavidIngx/html/master/cf_entregable/afiliaciones_palabras_agente_.html</t>
   </si>
   <si>
@@ -70,6 +67,12 @@
   </si>
   <si>
     <t>n_gramas</t>
+  </si>
+  <si>
+    <t>https://htmlpreview.github.io/?https://raw.githubusercontent.com/DavidIngx/html/master/cf_entregable/afiliaciones_(N_GRAMAS).html</t>
+  </si>
+  <si>
+    <t>https://htmlpreview.github.io/?https://raw.githubusercontent.com/DavidIngx/html/master/cf_entregable/afiliaciones_key_words.html</t>
   </si>
 </sst>
 </file>
@@ -401,7 +404,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -438,10 +441,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -449,10 +452,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -460,10 +463,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -471,10 +474,10 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -482,6 +485,9 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -492,6 +498,7 @@
     <hyperlink ref="C4" r:id="rId3" xr:uid="{2B9A740F-5715-46EF-B4A8-6ED234CB47A8}"/>
     <hyperlink ref="C5" r:id="rId4" xr:uid="{3747812F-84A0-40AA-9D57-F46614C28A6F}"/>
     <hyperlink ref="C6" r:id="rId5" xr:uid="{2EF2B09E-9526-48AD-BC5E-3DE28CEED9D1}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{691B5BD8-E264-41DB-9381-860B55B7B22E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/cf_entregable/frames_view.xlsx
+++ b/cf_entregable/frames_view.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guard\Documents\GitHub\html\cf_entregable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\html\cf_entregable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D37DCC25-7887-407B-808A-4AA80D59267F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{077E9F46-CADD-4E03-B410-7153DFBF8223}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-118" yWindow="-118" windowWidth="21181" windowHeight="11402" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-60" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="frames_view" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
   <si>
     <t>segmento</t>
   </si>
@@ -73,6 +73,27 @@
   </si>
   <si>
     <t>https://htmlpreview.github.io/?https://raw.githubusercontent.com/DavidIngx/html/master/cf_entregable/afiliaciones_key_words.html</t>
+  </si>
+  <si>
+    <t>whatsapp</t>
+  </si>
+  <si>
+    <t>https://projector.tensorflow.org/?config=https://gist.githubusercontent.com/luiska1803/e65e57239606051a55acecc9753d29d6/raw/d7940b8bcfa124c1f7de469da063bc735e5bd092/Wapp%2520Cafam</t>
+  </si>
+  <si>
+    <t>https://htmlpreview.github.io/?https://github.com/DavidIngx/html/blob/master/cf_entregable/Whatsapp/Palabras_emociones_user.html</t>
+  </si>
+  <si>
+    <t>https://htmlpreview.github.io/?https://github.com/DavidIngx/html/blob/master/cf_entregable/Whatsapp/Experiencia%20General%20User.html</t>
+  </si>
+  <si>
+    <t>https://htmlpreview.github.io/?https://github.com/DavidIngx/html/blob/master/cf_entregable/Whatsapp/Key%20words%20User.html</t>
+  </si>
+  <si>
+    <t>https://htmlpreview.github.io/?https://github.com/DavidIngx/html/blob/master/cf_entregable/Whatsapp/vis_LDA_Chat_wp_usuario.html</t>
+  </si>
+  <si>
+    <t>https://htmlpreview.github.io/?https://github.com/DavidIngx/html/blob/master/cf_entregable/Whatsapp/(N-GRAMAS)_%20User.html</t>
   </si>
 </sst>
 </file>
@@ -401,16 +422,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5546875" customWidth="1"/>
+    <col min="2" max="2" width="26.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="150.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -489,6 +510,72 @@
       </c>
       <c r="C7" s="1" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -499,6 +586,12 @@
     <hyperlink ref="C5" r:id="rId4" xr:uid="{3747812F-84A0-40AA-9D57-F46614C28A6F}"/>
     <hyperlink ref="C6" r:id="rId5" xr:uid="{2EF2B09E-9526-48AD-BC5E-3DE28CEED9D1}"/>
     <hyperlink ref="C7" r:id="rId6" xr:uid="{691B5BD8-E264-41DB-9381-860B55B7B22E}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{1146EE52-BD33-426E-A260-5C5CDD5982DD}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{836C6E02-76B4-4FB5-B0AE-FA42D4355FE9}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{B5A8695A-6414-47CF-B74C-00AFC8D80224}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{09C76CAD-C62E-4480-BDD4-C66A5084D00F}"/>
+    <hyperlink ref="C12" r:id="rId11" xr:uid="{F3C7809A-A11A-4BA6-AD98-195B6BD2B96D}"/>
+    <hyperlink ref="C13" r:id="rId12" xr:uid="{DD2B5A40-107B-4580-819B-C3509D5C6FF4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/cf_entregable/frames_view.xlsx
+++ b/cf_entregable/frames_view.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\html\cf_entregable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{077E9F46-CADD-4E03-B410-7153DFBF8223}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04377995-B6B8-4BD6-BE14-55A0156D3428}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-60" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -81,9 +81,6 @@
     <t>https://projector.tensorflow.org/?config=https://gist.githubusercontent.com/luiska1803/e65e57239606051a55acecc9753d29d6/raw/d7940b8bcfa124c1f7de469da063bc735e5bd092/Wapp%2520Cafam</t>
   </si>
   <si>
-    <t>https://htmlpreview.github.io/?https://github.com/DavidIngx/html/blob/master/cf_entregable/Whatsapp/Palabras_emociones_user.html</t>
-  </si>
-  <si>
     <t>https://htmlpreview.github.io/?https://github.com/DavidIngx/html/blob/master/cf_entregable/Whatsapp/Experiencia%20General%20User.html</t>
   </si>
   <si>
@@ -94,6 +91,9 @@
   </si>
   <si>
     <t>https://htmlpreview.github.io/?https://github.com/DavidIngx/html/blob/master/cf_entregable/Whatsapp/(N-GRAMAS)_%20User.html</t>
+  </si>
+  <si>
+    <t>https://htmlpreview.github.io/?https://github.com/DavidIngx/html/blob/master/cf_entregable/Whatsapp/palabras_emociones_agente.html</t>
   </si>
 </sst>
 </file>
@@ -425,7 +425,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -531,7 +531,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -542,7 +542,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -553,7 +553,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -564,7 +564,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -575,7 +575,7 @@
         <v>13</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/cf_entregable/frames_view.xlsx
+++ b/cf_entregable/frames_view.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\html\cf_entregable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guard\Documents\GitHub\html\cf_entregable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04377995-B6B8-4BD6-BE14-55A0156D3428}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AED1D2B-ADB4-4FD7-B740-F997F43684E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-60" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-118" yWindow="-118" windowWidth="21181" windowHeight="11402" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="frames_view" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="29">
   <si>
     <t>segmento</t>
   </si>
@@ -94,6 +94,24 @@
   </si>
   <si>
     <t>https://htmlpreview.github.io/?https://github.com/DavidIngx/html/blob/master/cf_entregable/Whatsapp/palabras_emociones_agente.html</t>
+  </si>
+  <si>
+    <t>https://projector.tensorflow.org/?config=https://gist.githubusercontent.com/DavidIngx/dfd7a8c944a95162dca14c3b0d0d933f/raw/c856a4406bd2aad9d5521df89b6a5732a3f6b3bb/data_cf_salud</t>
+  </si>
+  <si>
+    <t>salud</t>
+  </si>
+  <si>
+    <t>https://htmlpreview.github.io/?https://raw.githubusercontent.com/DavidIngx/html/master/cf_entregable/salud_key_word.html</t>
+  </si>
+  <si>
+    <t>https://htmlpreview.github.io/?https://raw.githubusercontent.com/DavidIngx/html/master/cf_entregable/salud_experiencia_general.html</t>
+  </si>
+  <si>
+    <t>https://htmlpreview.github.io/?https://raw.githubusercontent.com/DavidIngx/html/master/cf_entregable/salud_(N-GRAMAS)_.html</t>
+  </si>
+  <si>
+    <t>https://htmlpreview.github.io/?https://raw.githubusercontent.com/DavidIngx/html/master/cf_entregable/salud_vis_SALUD.html</t>
   </si>
 </sst>
 </file>
@@ -422,13 +440,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.5546875" customWidth="1"/>
     <col min="2" max="2" width="26.109375" bestFit="1" customWidth="1"/>
@@ -576,6 +594,61 @@
       </c>
       <c r="C13" s="1" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -592,6 +665,11 @@
     <hyperlink ref="C11" r:id="rId10" xr:uid="{09C76CAD-C62E-4480-BDD4-C66A5084D00F}"/>
     <hyperlink ref="C12" r:id="rId11" xr:uid="{F3C7809A-A11A-4BA6-AD98-195B6BD2B96D}"/>
     <hyperlink ref="C13" r:id="rId12" xr:uid="{DD2B5A40-107B-4580-819B-C3509D5C6FF4}"/>
+    <hyperlink ref="C14" r:id="rId13" xr:uid="{41556C07-CDC7-4360-A919-797EC7166D93}"/>
+    <hyperlink ref="C15" r:id="rId14" xr:uid="{A41EFEE6-72E4-46E0-8EBB-8030669D1056}"/>
+    <hyperlink ref="C16" r:id="rId15" xr:uid="{7D8BB106-39DD-4742-A86B-F1E7F5BFBA7E}"/>
+    <hyperlink ref="C17" r:id="rId16" xr:uid="{ACC64AA2-5C40-40D9-876B-4694FA885D6B}"/>
+    <hyperlink ref="C18" r:id="rId17" xr:uid="{68C1E5CB-1F50-4076-9EEC-180FCF7E73B8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/cf_entregable/frames_view.xlsx
+++ b/cf_entregable/frames_view.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guard\Documents\GitHub\html\cf_entregable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AED1D2B-ADB4-4FD7-B740-F997F43684E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3AED907-E363-45B7-9C56-04C29DE54CD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-118" yWindow="-118" windowWidth="21181" windowHeight="11402" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="35">
   <si>
     <t>segmento</t>
   </si>
@@ -112,6 +112,24 @@
   </si>
   <si>
     <t>https://htmlpreview.github.io/?https://raw.githubusercontent.com/DavidIngx/html/master/cf_entregable/salud_vis_SALUD.html</t>
+  </si>
+  <si>
+    <t>whatsapp-instituacional</t>
+  </si>
+  <si>
+    <t>https://projector.tensorflow.org/?config=https://gist.githubusercontent.com/DavidIngx/f52cf4c0193b3f63843b737f0af351db/raw/891e8ba13321a4246e22b4eb0b59d9e91856511d/data_cf_wa</t>
+  </si>
+  <si>
+    <t>https://htmlpreview.github.io/?https://raw.githubusercontent.com/DavidIngx/html/master/cf_entregable/wainstitucional_(N-GRAMAS)_.html</t>
+  </si>
+  <si>
+    <t>https://htmlpreview.github.io/?https://raw.githubusercontent.com/DavidIngx/html/master/cf_entregable/wainstitucional_key_word.html</t>
+  </si>
+  <si>
+    <t>https://htmlpreview.github.io/?https://raw.githubusercontent.com/DavidIngx/html/master/cf_entregable/wainstitucional__polaridad.html</t>
+  </si>
+  <si>
+    <t>https://htmlpreview.github.io/?https://raw.githubusercontent.com/DavidIngx/html/master/cf_entregable/wainstitucional_vis_Campa%C3%B1a_Afiliaciones.html</t>
   </si>
 </sst>
 </file>
@@ -440,15 +458,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="150.44140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -649,6 +667,61 @@
       </c>
       <c r="C18" s="1" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -670,6 +743,11 @@
     <hyperlink ref="C16" r:id="rId15" xr:uid="{7D8BB106-39DD-4742-A86B-F1E7F5BFBA7E}"/>
     <hyperlink ref="C17" r:id="rId16" xr:uid="{ACC64AA2-5C40-40D9-876B-4694FA885D6B}"/>
     <hyperlink ref="C18" r:id="rId17" xr:uid="{68C1E5CB-1F50-4076-9EEC-180FCF7E73B8}"/>
+    <hyperlink ref="C19" r:id="rId18" xr:uid="{CF753DA6-DE5B-46A6-94DB-BA036C3DDE7D}"/>
+    <hyperlink ref="C22" r:id="rId19" xr:uid="{53C06D9C-256A-4F7C-96E3-AF98CC1A30B4}"/>
+    <hyperlink ref="C20" r:id="rId20" xr:uid="{A345AD0F-3427-4FA3-BA97-E4B812007BC5}"/>
+    <hyperlink ref="C21" r:id="rId21" xr:uid="{F5A13CCD-FC9C-4625-B976-6551ED327255}"/>
+    <hyperlink ref="C23" r:id="rId22" xr:uid="{610849AD-B821-4CA3-86D4-9F01D0AB4876}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
